--- a/new-stats/willem-ii.xlsx
+++ b/new-stats/willem-ii.xlsx
@@ -2198,22 +2198,62 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>

--- a/new-stats/willem-ii.xlsx
+++ b/new-stats/willem-ii.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>21</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/willem-ii.xlsx
+++ b/new-stats/willem-ii.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/05/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9</v>
+      </c>
+      <c r="N33" t="n">
+        <v>16</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/willem-ii.xlsx
+++ b/new-stats/willem-ii.xlsx
@@ -2372,40 +2372,120 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M34" t="n">
+        <v>15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/willem-ii.xlsx
+++ b/new-stats/willem-ii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,6 +1145,78 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
